--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
-  <si>
-    <t>survey_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>site_name</t>
   </si>
@@ -519,13 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,269 +621,260 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>40721</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>40.680343000000001</v>
+      </c>
+      <c r="G2">
+        <v>141.06656699999999</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>2.6</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V2">
+        <v>2.8</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>2.6</v>
+      </c>
+      <c r="Z2">
+        <v>1.8</v>
+      </c>
+      <c r="AA2">
+        <v>1.4</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>2.5</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2">
+        <v>2.7</v>
+      </c>
+      <c r="AF2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1">
         <v>40721</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>40.680343000000001</v>
-      </c>
-      <c r="H2">
-        <v>141.06656699999999</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O2">
+      <c r="F3">
+        <v>40.686762999999999</v>
+      </c>
+      <c r="G3">
+        <v>141.12520599999999</v>
+      </c>
+      <c r="H3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>2.6</v>
       </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1.6</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
         <v>2.6</v>
       </c>
-      <c r="U2">
-        <v>3</v>
-      </c>
-      <c r="V2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W2">
-        <v>2.8</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2">
-        <v>2</v>
-      </c>
-      <c r="Z2">
+      <c r="S3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T3">
         <v>2.6</v>
       </c>
-      <c r="AA2">
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z3">
         <v>1.8</v>
-      </c>
-      <c r="AB2">
-        <v>1.4</v>
-      </c>
-      <c r="AC2">
-        <v>3</v>
-      </c>
-      <c r="AD2">
-        <v>2.5</v>
-      </c>
-      <c r="AE2">
-        <v>3</v>
-      </c>
-      <c r="AF2">
-        <v>2.7</v>
-      </c>
-      <c r="AG2">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1">
-        <v>40721</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>40.686762999999999</v>
-      </c>
-      <c r="H3">
-        <v>141.12520599999999</v>
-      </c>
-      <c r="I3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>2.6</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>1.6</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>2.6</v>
-      </c>
-      <c r="T3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U3">
-        <v>2.6</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
-        <v>3</v>
-      </c>
-      <c r="Z3">
-        <v>2.2000000000000002</v>
       </c>
       <c r="AA3">
         <v>1.8</v>
       </c>
       <c r="AB3">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AC3">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD3">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AE3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AF3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AG3">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4">
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40721</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>40.698777</v>
+      </c>
+      <c r="G4">
+        <v>141.16113200000001</v>
+      </c>
+      <c r="H4">
+        <v>2.7</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40721</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>40.698777</v>
-      </c>
-      <c r="H4">
-        <v>141.16113200000001</v>
-      </c>
-      <c r="I4">
-        <v>2.7</v>
-      </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
         <v>1.3</v>
       </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
       <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>1.7</v>
+      </c>
+      <c r="S4">
         <v>1.3</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.7</v>
       </c>
       <c r="T4">
         <v>1.3</v>
@@ -893,328 +883,319 @@
         <v>1.3</v>
       </c>
       <c r="V4">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
         <v>1.7</v>
       </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
       <c r="Z4">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>1.7</v>
+      </c>
+      <c r="AE4">
+        <v>1.5</v>
+      </c>
+      <c r="AF4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40816</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>40.029060000000001</v>
+      </c>
+      <c r="G5">
+        <v>141.538276</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1.5</v>
+      </c>
+      <c r="K5">
+        <v>2.5</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AD4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AE4">
-        <v>1.7</v>
-      </c>
-      <c r="AF4">
-        <v>1.5</v>
-      </c>
-      <c r="AG4">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1">
-        <v>40816</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>40.029060000000001</v>
-      </c>
-      <c r="H5">
-        <v>141.538276</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>1.5</v>
-      </c>
-      <c r="L5">
-        <v>2.5</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>2.5</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U5">
+        <v>2.5</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>2.5</v>
+      </c>
+      <c r="Y5">
+        <v>2.5</v>
+      </c>
+      <c r="Z5">
+        <v>2.7</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>1.5</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1.5</v>
+      </c>
+      <c r="AF5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40816</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>40.269185999999998</v>
+      </c>
+      <c r="G6">
+        <v>141.29844</v>
+      </c>
+      <c r="H6">
+        <v>2.9</v>
+      </c>
+      <c r="I6">
+        <v>2.6</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>2.8</v>
+      </c>
+      <c r="L6">
+        <v>2.5</v>
+      </c>
+      <c r="M6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2.7</v>
+      </c>
+      <c r="P6">
+        <v>2.4</v>
+      </c>
+      <c r="Q6">
+        <v>2.7</v>
+      </c>
+      <c r="R6">
+        <v>2.8</v>
+      </c>
+      <c r="S6">
+        <v>2.1</v>
+      </c>
+      <c r="T6">
+        <v>2.6</v>
+      </c>
+      <c r="U6">
+        <v>2.8</v>
+      </c>
+      <c r="V6">
+        <v>2.4</v>
+      </c>
+      <c r="W6">
+        <v>2.6</v>
+      </c>
+      <c r="X6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>2.8</v>
+      </c>
+      <c r="Z6">
+        <v>2.6</v>
+      </c>
+      <c r="AA6">
+        <v>2.1</v>
+      </c>
+      <c r="AB6">
+        <v>2.7</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40816</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>40.537866999999999</v>
+      </c>
+      <c r="G7">
+        <v>141.497556</v>
+      </c>
+      <c r="H7">
+        <v>2.5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2.5</v>
+      </c>
+      <c r="K7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R5">
-        <v>2.5</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V5">
-        <v>2.5</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>2.5</v>
-      </c>
-      <c r="Z5">
-        <v>2.5</v>
-      </c>
-      <c r="AA5">
-        <v>2.7</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>3</v>
-      </c>
-      <c r="AD5">
+      <c r="L7">
+        <v>2.5</v>
+      </c>
+      <c r="M7">
+        <v>2.5</v>
+      </c>
+      <c r="N7">
+        <v>2.5</v>
+      </c>
+      <c r="O7">
         <v>1.5</v>
       </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
+      <c r="P7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q7">
         <v>1.5</v>
       </c>
-      <c r="AG5">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1">
-        <v>40816</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>40.269185999999998</v>
-      </c>
-      <c r="H6">
-        <v>141.29844</v>
-      </c>
-      <c r="I6">
-        <v>2.9</v>
-      </c>
-      <c r="J6">
-        <v>2.6</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>2.8</v>
-      </c>
-      <c r="M6">
-        <v>2.5</v>
-      </c>
-      <c r="N6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>2.7</v>
-      </c>
-      <c r="Q6">
-        <v>2.4</v>
-      </c>
-      <c r="R6">
-        <v>2.7</v>
-      </c>
-      <c r="S6">
-        <v>2.8</v>
-      </c>
-      <c r="T6">
+      <c r="R7">
+        <v>2.5</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2.5</v>
+      </c>
+      <c r="V7">
+        <v>2.5</v>
+      </c>
+      <c r="W7">
+        <v>1.5</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
         <v>2.1</v>
       </c>
-      <c r="U6">
-        <v>2.6</v>
-      </c>
-      <c r="V6">
-        <v>2.8</v>
-      </c>
-      <c r="W6">
-        <v>2.4</v>
-      </c>
-      <c r="X6">
-        <v>2.6</v>
-      </c>
-      <c r="Y6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Z6">
-        <v>2.8</v>
-      </c>
-      <c r="AA6">
-        <v>2.6</v>
-      </c>
-      <c r="AB6">
-        <v>2.1</v>
-      </c>
-      <c r="AC6">
-        <v>2.7</v>
-      </c>
-      <c r="AD6">
-        <v>2</v>
-      </c>
-      <c r="AE6">
-        <v>2</v>
-      </c>
-      <c r="AF6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AG6">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1">
-        <v>40816</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>40.537866999999999</v>
-      </c>
-      <c r="H7">
-        <v>141.497556</v>
-      </c>
-      <c r="I7">
-        <v>2.5</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2.5</v>
-      </c>
-      <c r="L7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M7">
-        <v>2.5</v>
-      </c>
-      <c r="N7">
-        <v>2.5</v>
-      </c>
-      <c r="O7">
-        <v>2.5</v>
-      </c>
-      <c r="P7">
+      <c r="AA7">
         <v>1.5</v>
       </c>
-      <c r="Q7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R7">
-        <v>1.5</v>
-      </c>
-      <c r="S7">
-        <v>2.5</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>2.5</v>
-      </c>
-      <c r="W7">
-        <v>2.5</v>
-      </c>
-      <c r="X7">
-        <v>1.5</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7">
-        <v>2.1</v>
-      </c>
       <c r="AB7">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AC7">
         <v>2.5</v>
@@ -1226,9 +1207,6 @@
         <v>2.5</v>
       </c>
       <c r="AF7">
-        <v>2.5</v>
-      </c>
-      <c r="AG7">
         <v>2.4</v>
       </c>
     </row>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -700,109 +700,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:AL1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="7:38">
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" t="s">
         <v>31</v>
       </c>
     </row>
